--- a/raw data/sorted/Narodna Banka Srbije/NOT USED/M3 novcana masa.xlsx
+++ b/raw data/sorted/Narodna Banka Srbije/NOT USED/M3 novcana masa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25712"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mace\OneDrive - Zühlke Engineering AG\Documents\master-thesis-code\raw data\Narodna Banka Srbije\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1682\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AF22E1-D574-4660-929C-9E8C592B6F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E1E7046-8110-4DB9-86C7-C131BDE37626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40180" yWindow="1780" windowWidth="28800" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Srb" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Eng!$A$1:$K$262</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Srb!$A$1:$K$256</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Srb!$A$1:$K$262</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Eng!$3:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Srb!$3:$9</definedName>
   </definedNames>
@@ -32,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="94">
   <si>
     <t xml:space="preserve">Датум ажурирања: </t>
   </si>
@@ -222,6 +223,32 @@
     <t>2022.</t>
   </si>
   <si>
+    <t>НАПОМЕНЕ:</t>
+  </si>
+  <si>
+    <t>Од 31. децембра 2014. године ступио је на снагу нови Контни оквир за банке и друге финансијске организације, усклађен са Међународним рачуноводственим стандардима.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Од децембра 2014. године извршена је прекласификација институционалних јединица. На основу табела секторизације приказаних на интернет страници НБС https://nbs.rs/sr_RS/drugi-nivo-navigacije/statistika/sekt_klasifikacija/ извршена је подела по институционалним секторима у складу са Европским системом рачуна (ESA 2010). </t>
+  </si>
+  <si>
+    <t>Повезане институционалне јединице које улазе или не улазе у круг консолидације (из сектора финансија и осигурања, јавних предузећа, привредних друштава, страних лица и других комитената) почев од децембра 2014. године распоређене су на припадајуће секторе у складу са Европским системом рачуна (ESA 2010) и више се не приказују одвојено.</t>
+  </si>
+  <si>
+    <r>
+      <t>Од краја 2014. године као критеријум за утврђивање да ли се предузеће сматра јавним предузећем или привредним друштвом користи се критеријум власништва, контроле и управљања. Због тога је крајем 2014. забележено веће учешће кредита јавним предузећима у укупним кредитима у односу на претходне године.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Updated: </t>
   </si>
   <si>
@@ -318,7 +345,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-C1A]d/\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -389,6 +416,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
@@ -569,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -623,30 +656,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,6 +721,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -722,16 +771,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,88 +1113,88 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K259"/>
+  <dimension ref="A1:K265"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P258" sqref="P258"/>
       <selection activeCell="D252" sqref="D252"/>
-      <selection pane="bottomLeft" activeCell="N187" sqref="N187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="8.6999999999999993" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="9.75"/>
   <cols>
-    <col min="1" max="1" width="3.27734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.71875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.27734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="3"/>
+    <col min="6" max="6" width="10.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:11" ht="12.75">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34">
+      <c r="C1" s="52"/>
+      <c r="D1" s="53">
         <v>44796</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="25"/>
       <c r="G1" s="27"/>
       <c r="H1" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="11.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="35" t="s">
+    <row r="3" spans="1:11" ht="12">
+      <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="35"/>
-    </row>
-    <row r="4" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="B4" s="36" t="s">
+      <c r="C3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75">
+      <c r="B4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:11" ht="11.4" x14ac:dyDescent="0.4">
-      <c r="B5" s="35" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" ht="12">
+      <c r="B5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="51" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1177,12 +1216,12 @@
       <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="8.25" customHeight="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="5">
         <v>1</v>
       </c>
@@ -1204,10 +1243,10 @@
       <c r="I9" s="5">
         <v>7</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
@@ -1236,7 +1275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="32" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="32" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A13" s="32" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="32" t="s">
         <v>16</v>
       </c>
@@ -1352,7 +1391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A15" s="32" t="s">
         <v>17</v>
       </c>
@@ -1381,7 +1420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="32" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="32" t="s">
         <v>19</v>
       </c>
@@ -1439,7 +1478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A18" s="32" t="s">
         <v>20</v>
       </c>
@@ -1468,7 +1507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="32" t="s">
         <v>21</v>
       </c>
@@ -1497,7 +1536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A20" s="32" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
@@ -1555,7 +1594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A22" s="16" t="s">
         <v>24</v>
       </c>
@@ -1584,7 +1623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="16" t="s">
         <v>25</v>
       </c>
@@ -1613,7 +1652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="16" t="s">
         <v>26</v>
       </c>
@@ -1642,7 +1681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>27</v>
       </c>
@@ -1671,7 +1710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>28</v>
       </c>
@@ -1700,7 +1739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A27" s="16" t="s">
         <v>29</v>
       </c>
@@ -1729,7 +1768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1758,7 +1797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>31</v>
       </c>
@@ -1787,7 +1826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="18" t="s">
         <v>32</v>
       </c>
@@ -1816,7 +1855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="18" t="s">
         <v>33</v>
       </c>
@@ -1845,7 +1884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="18" t="s">
         <v>34</v>
       </c>
@@ -1874,7 +1913,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1">
       <c r="A33" s="32" t="s">
         <v>17</v>
       </c>
@@ -1909,7 +1948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1938,7 +1977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1967,7 +2006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1996,7 +2035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1">
       <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
@@ -2025,7 +2064,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1">
       <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
@@ -2054,7 +2093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1">
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
@@ -2083,7 +2122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1">
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2112,7 +2151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
@@ -2141,7 +2180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1">
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
@@ -2170,7 +2209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1">
       <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
@@ -2199,7 +2238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1">
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
@@ -2228,7 +2267,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="12.75" customHeight="1">
       <c r="A45" s="32" t="s">
         <v>18</v>
       </c>
@@ -2263,7 +2302,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1">
       <c r="B46" s="1" t="s">
         <v>36</v>
       </c>
@@ -2292,7 +2331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1">
       <c r="B47" s="1" t="s">
         <v>37</v>
       </c>
@@ -2321,7 +2360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1">
       <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
@@ -2350,7 +2389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1">
       <c r="B49" s="1" t="s">
         <v>39</v>
       </c>
@@ -2379,7 +2418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1">
       <c r="B50" s="1" t="s">
         <v>40</v>
       </c>
@@ -2408,7 +2447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1">
       <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
@@ -2437,7 +2476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1">
       <c r="B52" s="1" t="s">
         <v>42</v>
       </c>
@@ -2466,7 +2505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1">
       <c r="B53" s="1" t="s">
         <v>43</v>
       </c>
@@ -2495,7 +2534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1">
       <c r="B54" s="1" t="s">
         <v>44</v>
       </c>
@@ -2524,7 +2563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1">
       <c r="B55" s="1" t="s">
         <v>45</v>
       </c>
@@ -2553,7 +2592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1">
       <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
@@ -2582,7 +2621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1">
       <c r="A57" s="32" t="s">
         <v>19</v>
       </c>
@@ -2617,7 +2656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1">
       <c r="B58" s="1" t="s">
         <v>36</v>
       </c>
@@ -2646,7 +2685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1">
       <c r="B59" s="1" t="s">
         <v>37</v>
       </c>
@@ -2675,7 +2714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1">
       <c r="B60" s="1" t="s">
         <v>38</v>
       </c>
@@ -2704,7 +2743,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1">
       <c r="B61" s="1" t="s">
         <v>39</v>
       </c>
@@ -2733,7 +2772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1">
       <c r="B62" s="1" t="s">
         <v>40</v>
       </c>
@@ -2762,7 +2801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1">
       <c r="B63" s="1" t="s">
         <v>41</v>
       </c>
@@ -2791,7 +2830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="12.75" customHeight="1">
       <c r="B64" s="1" t="s">
         <v>42</v>
       </c>
@@ -2820,7 +2859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="12.75" customHeight="1">
       <c r="B65" s="1" t="s">
         <v>43</v>
       </c>
@@ -2849,7 +2888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="12.75" customHeight="1">
       <c r="B66" s="1" t="s">
         <v>44</v>
       </c>
@@ -2878,7 +2917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="12.75" customHeight="1">
       <c r="B67" s="1" t="s">
         <v>45</v>
       </c>
@@ -2907,7 +2946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="12.75" customHeight="1">
       <c r="B68" s="1" t="s">
         <v>46</v>
       </c>
@@ -2936,7 +2975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="12.75" customHeight="1">
       <c r="A69" s="32" t="s">
         <v>20</v>
       </c>
@@ -2971,7 +3010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="12.75" customHeight="1">
       <c r="B70" s="1" t="s">
         <v>36</v>
       </c>
@@ -3000,7 +3039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="12.75" customHeight="1">
       <c r="B71" s="1" t="s">
         <v>37</v>
       </c>
@@ -3029,7 +3068,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="12.75" customHeight="1">
       <c r="B72" s="1" t="s">
         <v>38</v>
       </c>
@@ -3058,7 +3097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="12.75" customHeight="1">
       <c r="B73" s="1" t="s">
         <v>39</v>
       </c>
@@ -3087,7 +3126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="12.75" customHeight="1">
       <c r="B74" s="1" t="s">
         <v>40</v>
       </c>
@@ -3116,7 +3155,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="12.75" customHeight="1">
       <c r="B75" s="1" t="s">
         <v>41</v>
       </c>
@@ -3145,7 +3184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="12.75" customHeight="1">
       <c r="B76" s="1" t="s">
         <v>42</v>
       </c>
@@ -3174,7 +3213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="12.75" customHeight="1">
       <c r="B77" s="1" t="s">
         <v>47</v>
       </c>
@@ -3203,7 +3242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="12.75" customHeight="1">
       <c r="B78" s="1" t="s">
         <v>48</v>
       </c>
@@ -3232,7 +3271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="12.75" customHeight="1">
       <c r="B79" s="1" t="s">
         <v>49</v>
       </c>
@@ -3261,7 +3300,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="12.75" customHeight="1">
       <c r="B80" s="1" t="s">
         <v>50</v>
       </c>
@@ -3290,7 +3329,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="12.75" customHeight="1">
       <c r="A81" s="32" t="s">
         <v>21</v>
       </c>
@@ -3325,7 +3364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="12.75" customHeight="1">
       <c r="B82" s="1" t="s">
         <v>51</v>
       </c>
@@ -3354,7 +3393,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="12.75" customHeight="1">
       <c r="B83" s="1" t="s">
         <v>52</v>
       </c>
@@ -3383,7 +3422,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="12.75" customHeight="1">
       <c r="B84" s="1" t="s">
         <v>53</v>
       </c>
@@ -3412,7 +3451,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="12.75" customHeight="1">
       <c r="B85" s="1" t="s">
         <v>54</v>
       </c>
@@ -3441,7 +3480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="12.75" customHeight="1">
       <c r="B86" s="1" t="s">
         <v>55</v>
       </c>
@@ -3470,7 +3509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="12.75" customHeight="1">
       <c r="B87" s="1" t="s">
         <v>56</v>
       </c>
@@ -3499,7 +3538,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="12.75" customHeight="1">
       <c r="B88" s="1" t="s">
         <v>57</v>
       </c>
@@ -3528,7 +3567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="12.75" customHeight="1">
       <c r="B89" s="1" t="s">
         <v>47</v>
       </c>
@@ -3557,7 +3596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="12.75" customHeight="1">
       <c r="B90" s="1" t="s">
         <v>48</v>
       </c>
@@ -3586,7 +3625,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="12.75" customHeight="1">
       <c r="B91" s="1" t="s">
         <v>49</v>
       </c>
@@ -3615,7 +3654,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="12.75" customHeight="1">
       <c r="B92" s="1" t="s">
         <v>50</v>
       </c>
@@ -3644,7 +3683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="12.75" customHeight="1">
       <c r="A93" s="32" t="s">
         <v>22</v>
       </c>
@@ -3679,7 +3718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="12.75" customHeight="1">
       <c r="B94" s="1" t="s">
         <v>51</v>
       </c>
@@ -3708,7 +3747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="12.75" customHeight="1">
       <c r="B95" s="1" t="s">
         <v>52</v>
       </c>
@@ -3737,7 +3776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="12.75" customHeight="1">
       <c r="B96" s="1" t="s">
         <v>53</v>
       </c>
@@ -3766,7 +3805,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="12.75" customHeight="1">
       <c r="B97" s="1" t="s">
         <v>54</v>
       </c>
@@ -3795,7 +3834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="12.75" customHeight="1">
       <c r="B98" s="1" t="s">
         <v>55</v>
       </c>
@@ -3824,7 +3863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="12.75" customHeight="1">
       <c r="B99" s="1" t="s">
         <v>56</v>
       </c>
@@ -3853,7 +3892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="12.75" customHeight="1">
       <c r="B100" s="1" t="s">
         <v>57</v>
       </c>
@@ -3882,7 +3921,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="12.75" customHeight="1">
       <c r="B101" s="1" t="s">
         <v>47</v>
       </c>
@@ -3911,7 +3950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="12.75" customHeight="1">
       <c r="B102" s="1" t="s">
         <v>48</v>
       </c>
@@ -3940,7 +3979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="12.75" customHeight="1">
       <c r="B103" s="1" t="s">
         <v>49</v>
       </c>
@@ -3969,7 +4008,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="12.75" customHeight="1">
       <c r="B104" s="1" t="s">
         <v>50</v>
       </c>
@@ -3998,7 +4037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="12.75" customHeight="1">
       <c r="A105" s="32" t="s">
         <v>23</v>
       </c>
@@ -4033,7 +4072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="12.75" customHeight="1">
       <c r="B106" s="1" t="s">
         <v>51</v>
       </c>
@@ -4062,7 +4101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="12.75" customHeight="1">
       <c r="B107" s="1" t="s">
         <v>52</v>
       </c>
@@ -4091,7 +4130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="12.75" customHeight="1">
       <c r="B108" s="1" t="s">
         <v>53</v>
       </c>
@@ -4120,7 +4159,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="12.75" customHeight="1">
       <c r="B109" s="1" t="s">
         <v>54</v>
       </c>
@@ -4149,7 +4188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="12.75" customHeight="1">
       <c r="B110" s="1" t="s">
         <v>55</v>
       </c>
@@ -4178,7 +4217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="12.75" customHeight="1">
       <c r="B111" s="1" t="s">
         <v>56</v>
       </c>
@@ -4207,7 +4246,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="12.75" customHeight="1">
       <c r="B112" s="1" t="s">
         <v>57</v>
       </c>
@@ -4236,7 +4275,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="12.75" customHeight="1">
       <c r="B113" s="1" t="s">
         <v>47</v>
       </c>
@@ -4265,7 +4304,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="12.75" customHeight="1">
       <c r="B114" s="1" t="s">
         <v>48</v>
       </c>
@@ -4294,7 +4333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="12.75" customHeight="1">
       <c r="B115" s="1" t="s">
         <v>49</v>
       </c>
@@ -4323,7 +4362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="12.75" customHeight="1">
       <c r="B116" s="1" t="s">
         <v>50</v>
       </c>
@@ -4352,7 +4391,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="12.75" customHeight="1">
       <c r="A117" s="32" t="s">
         <v>24</v>
       </c>
@@ -4387,7 +4426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="12.75" customHeight="1">
       <c r="B118" s="1" t="s">
         <v>51</v>
       </c>
@@ -4416,7 +4455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="12.75" customHeight="1">
       <c r="B119" s="1" t="s">
         <v>52</v>
       </c>
@@ -4445,7 +4484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="12.75" customHeight="1">
       <c r="B120" s="1" t="s">
         <v>53</v>
       </c>
@@ -4474,7 +4513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="12.75" customHeight="1">
       <c r="B121" s="1" t="s">
         <v>54</v>
       </c>
@@ -4503,7 +4542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="12.75" customHeight="1">
       <c r="B122" s="1" t="s">
         <v>55</v>
       </c>
@@ -4532,7 +4571,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="12.75" customHeight="1">
       <c r="B123" s="1" t="s">
         <v>56</v>
       </c>
@@ -4561,7 +4600,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="12.75" customHeight="1">
       <c r="B124" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,7 +4629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="12.75" customHeight="1">
       <c r="B125" s="1" t="s">
         <v>47</v>
       </c>
@@ -4619,7 +4658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="12.75" customHeight="1">
       <c r="B126" s="1" t="s">
         <v>48</v>
       </c>
@@ -4648,7 +4687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="12.75" customHeight="1">
       <c r="B127" s="1" t="s">
         <v>49</v>
       </c>
@@ -4677,7 +4716,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="12.75" customHeight="1">
       <c r="B128" s="1" t="s">
         <v>50</v>
       </c>
@@ -4706,7 +4745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="12.75" customHeight="1">
       <c r="A129" s="32" t="s">
         <v>25</v>
       </c>
@@ -4741,7 +4780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="12.75" customHeight="1">
       <c r="B130" s="1" t="s">
         <v>51</v>
       </c>
@@ -4770,7 +4809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="12.75" customHeight="1">
       <c r="B131" s="1" t="s">
         <v>52</v>
       </c>
@@ -4799,7 +4838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="12.75" customHeight="1">
       <c r="B132" s="1" t="s">
         <v>53</v>
       </c>
@@ -4828,7 +4867,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="12.75" customHeight="1">
       <c r="B133" s="1" t="s">
         <v>54</v>
       </c>
@@ -4857,7 +4896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="12.75" customHeight="1">
       <c r="B134" s="1" t="s">
         <v>55</v>
       </c>
@@ -4886,7 +4925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="12.75" customHeight="1">
       <c r="B135" s="1" t="s">
         <v>56</v>
       </c>
@@ -4915,7 +4954,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="12.75" customHeight="1">
       <c r="B136" s="1" t="s">
         <v>57</v>
       </c>
@@ -4944,7 +4983,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="12.75" customHeight="1">
       <c r="B137" s="1" t="s">
         <v>47</v>
       </c>
@@ -4973,7 +5012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="12.75" customHeight="1">
       <c r="B138" s="1" t="s">
         <v>48</v>
       </c>
@@ -5002,7 +5041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="12.75" customHeight="1">
       <c r="B139" s="1" t="s">
         <v>49</v>
       </c>
@@ -5031,7 +5070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="12.75" customHeight="1">
       <c r="B140" s="1" t="s">
         <v>50</v>
       </c>
@@ -5060,7 +5099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="12.75" customHeight="1">
       <c r="A141" s="32" t="s">
         <v>26</v>
       </c>
@@ -5095,7 +5134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="12.75" customHeight="1">
       <c r="B142" s="1" t="s">
         <v>51</v>
       </c>
@@ -5124,7 +5163,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="12.75" customHeight="1">
       <c r="B143" s="1" t="s">
         <v>52</v>
       </c>
@@ -5153,7 +5192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="12.75" customHeight="1">
       <c r="B144" s="1" t="s">
         <v>53</v>
       </c>
@@ -5182,7 +5221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="12.75" customHeight="1">
       <c r="B145" s="10" t="s">
         <v>58</v>
       </c>
@@ -5211,7 +5250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="12.75" customHeight="1">
       <c r="B146" s="1" t="s">
         <v>55</v>
       </c>
@@ -5240,7 +5279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="12.75" customHeight="1">
       <c r="B147" s="1" t="s">
         <v>56</v>
       </c>
@@ -5269,7 +5308,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="12.75" customHeight="1">
       <c r="B148" s="1" t="s">
         <v>57</v>
       </c>
@@ -5298,7 +5337,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="12.75" customHeight="1">
       <c r="B149" s="1" t="s">
         <v>47</v>
       </c>
@@ -5327,7 +5366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="12.75" customHeight="1">
       <c r="B150" s="1" t="s">
         <v>48</v>
       </c>
@@ -5356,7 +5395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="12.75" customHeight="1">
       <c r="B151" s="1" t="s">
         <v>49</v>
       </c>
@@ -5385,7 +5424,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="12.75" customHeight="1">
       <c r="B152" s="1" t="s">
         <v>50</v>
       </c>
@@ -5414,7 +5453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="12.75" customHeight="1">
       <c r="A153" s="32" t="s">
         <v>27</v>
       </c>
@@ -5449,7 +5488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="12.75" customHeight="1">
       <c r="A154" s="32"/>
       <c r="B154" s="1" t="s">
         <v>51</v>
@@ -5480,7 +5519,7 @@
       </c>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="12.75" customHeight="1">
       <c r="A155" s="32"/>
       <c r="B155" s="1" t="s">
         <v>52</v>
@@ -5511,7 +5550,7 @@
       </c>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="12.75" customHeight="1">
       <c r="A156" s="32"/>
       <c r="B156" s="1" t="s">
         <v>53</v>
@@ -5542,7 +5581,7 @@
       </c>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="12.75" customHeight="1">
       <c r="A157" s="32"/>
       <c r="B157" s="1" t="s">
         <v>54</v>
@@ -5573,7 +5612,7 @@
       </c>
       <c r="K157" s="15"/>
     </row>
-    <row r="158" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="12.75" customHeight="1">
       <c r="A158" s="32"/>
       <c r="B158" s="1" t="s">
         <v>55</v>
@@ -5604,7 +5643,7 @@
       </c>
       <c r="K158" s="15"/>
     </row>
-    <row r="159" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="12.75" customHeight="1">
       <c r="A159" s="32"/>
       <c r="B159" s="1" t="s">
         <v>56</v>
@@ -5635,7 +5674,7 @@
       </c>
       <c r="K159" s="15"/>
     </row>
-    <row r="160" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="12.75" customHeight="1">
       <c r="A160" s="32"/>
       <c r="B160" s="1" t="s">
         <v>57</v>
@@ -5666,7 +5705,7 @@
       </c>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="12.75" customHeight="1">
       <c r="A161" s="32"/>
       <c r="B161" s="1" t="s">
         <v>47</v>
@@ -5697,7 +5736,7 @@
       </c>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="12.75" customHeight="1">
       <c r="A162" s="32"/>
       <c r="B162" s="1" t="s">
         <v>48</v>
@@ -5728,7 +5767,7 @@
       </c>
       <c r="K162" s="15"/>
     </row>
-    <row r="163" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="12.75" customHeight="1">
       <c r="A163" s="32"/>
       <c r="B163" s="1" t="s">
         <v>49</v>
@@ -5759,7 +5798,7 @@
       </c>
       <c r="K163" s="15"/>
     </row>
-    <row r="164" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="12.75" customHeight="1">
       <c r="A164" s="32"/>
       <c r="B164" s="1" t="s">
         <v>50</v>
@@ -5790,7 +5829,7 @@
       </c>
       <c r="K164" s="15"/>
     </row>
-    <row r="165" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="12.75" customHeight="1">
       <c r="A165" s="32" t="s">
         <v>28</v>
       </c>
@@ -5825,7 +5864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="12.75" customHeight="1">
       <c r="A166" s="32"/>
       <c r="B166" s="1" t="s">
         <v>51</v>
@@ -5856,7 +5895,7 @@
       </c>
       <c r="K166" s="15"/>
     </row>
-    <row r="167" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="12.75" customHeight="1">
       <c r="A167" s="32"/>
       <c r="B167" s="1" t="s">
         <v>52</v>
@@ -5887,7 +5926,7 @@
       </c>
       <c r="K167" s="15"/>
     </row>
-    <row r="168" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="12.75" customHeight="1">
       <c r="A168" s="32"/>
       <c r="B168" s="1" t="s">
         <v>53</v>
@@ -5918,7 +5957,7 @@
       </c>
       <c r="K168" s="15"/>
     </row>
-    <row r="169" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="12.75" customHeight="1">
       <c r="A169" s="32"/>
       <c r="B169" s="1" t="s">
         <v>54</v>
@@ -5949,7 +5988,7 @@
       </c>
       <c r="K169" s="15"/>
     </row>
-    <row r="170" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="12.75" customHeight="1">
       <c r="A170" s="32"/>
       <c r="B170" s="1" t="s">
         <v>55</v>
@@ -5980,7 +6019,7 @@
       </c>
       <c r="K170" s="15"/>
     </row>
-    <row r="171" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="12.75" customHeight="1">
       <c r="A171" s="32"/>
       <c r="B171" s="1" t="s">
         <v>56</v>
@@ -6011,7 +6050,7 @@
       </c>
       <c r="K171" s="15"/>
     </row>
-    <row r="172" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="12.75" customHeight="1">
       <c r="A172" s="32"/>
       <c r="B172" s="1" t="s">
         <v>57</v>
@@ -6042,7 +6081,7 @@
       </c>
       <c r="K172" s="15"/>
     </row>
-    <row r="173" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="12.75" customHeight="1">
       <c r="A173" s="32"/>
       <c r="B173" s="1" t="s">
         <v>47</v>
@@ -6073,7 +6112,7 @@
       </c>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="12.75" customHeight="1">
       <c r="A174" s="32"/>
       <c r="B174" s="1" t="s">
         <v>48</v>
@@ -6104,7 +6143,7 @@
       </c>
       <c r="K174" s="15"/>
     </row>
-    <row r="175" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="12.75" customHeight="1">
       <c r="A175" s="32"/>
       <c r="B175" s="1" t="s">
         <v>49</v>
@@ -6135,7 +6174,7 @@
       </c>
       <c r="K175" s="15"/>
     </row>
-    <row r="176" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="12.75" customHeight="1">
       <c r="A176" s="32"/>
       <c r="B176" s="1" t="s">
         <v>50</v>
@@ -6166,7 +6205,7 @@
       </c>
       <c r="K176" s="15"/>
     </row>
-    <row r="177" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="12.75" customHeight="1">
       <c r="A177" s="32" t="s">
         <v>29</v>
       </c>
@@ -6201,7 +6240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="12.75" customHeight="1">
       <c r="A178" s="32"/>
       <c r="B178" s="1" t="s">
         <v>51</v>
@@ -6232,7 +6271,7 @@
       </c>
       <c r="K178" s="15"/>
     </row>
-    <row r="179" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="12.75" customHeight="1">
       <c r="A179" s="32"/>
       <c r="B179" s="1" t="s">
         <v>52</v>
@@ -6263,7 +6302,7 @@
       </c>
       <c r="K179" s="15"/>
     </row>
-    <row r="180" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="12.75" customHeight="1">
       <c r="A180" s="32"/>
       <c r="B180" s="1" t="s">
         <v>53</v>
@@ -6294,7 +6333,7 @@
       </c>
       <c r="K180" s="15"/>
     </row>
-    <row r="181" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="12.75" customHeight="1">
       <c r="A181" s="32"/>
       <c r="B181" s="1" t="s">
         <v>54</v>
@@ -6325,7 +6364,7 @@
       </c>
       <c r="K181" s="15"/>
     </row>
-    <row r="182" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="12.75" customHeight="1">
       <c r="A182" s="32"/>
       <c r="B182" s="1" t="s">
         <v>55</v>
@@ -6356,7 +6395,7 @@
       </c>
       <c r="K182" s="15"/>
     </row>
-    <row r="183" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="12.75" customHeight="1">
       <c r="A183" s="32"/>
       <c r="B183" s="1" t="s">
         <v>56</v>
@@ -6387,7 +6426,7 @@
       </c>
       <c r="K183" s="15"/>
     </row>
-    <row r="184" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="12.75" customHeight="1">
       <c r="A184" s="32"/>
       <c r="B184" s="1" t="s">
         <v>57</v>
@@ -6418,7 +6457,7 @@
       </c>
       <c r="K184" s="15"/>
     </row>
-    <row r="185" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="12.75" customHeight="1">
       <c r="A185" s="32"/>
       <c r="B185" s="1" t="s">
         <v>47</v>
@@ -6449,7 +6488,7 @@
       </c>
       <c r="K185" s="15"/>
     </row>
-    <row r="186" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="12.75" customHeight="1">
       <c r="A186" s="32"/>
       <c r="B186" s="1" t="s">
         <v>48</v>
@@ -6480,7 +6519,7 @@
       </c>
       <c r="K186" s="15"/>
     </row>
-    <row r="187" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="12.75" customHeight="1">
       <c r="A187" s="32"/>
       <c r="B187" s="1" t="s">
         <v>49</v>
@@ -6511,7 +6550,7 @@
       </c>
       <c r="K187" s="15"/>
     </row>
-    <row r="188" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="12.75" customHeight="1">
       <c r="A188" s="32"/>
       <c r="B188" s="1" t="s">
         <v>50</v>
@@ -6542,7 +6581,7 @@
       </c>
       <c r="K188" s="15"/>
     </row>
-    <row r="189" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="12.75" customHeight="1">
       <c r="A189" s="32" t="s">
         <v>30</v>
       </c>
@@ -6577,7 +6616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="12.75" customHeight="1">
       <c r="A190" s="32"/>
       <c r="B190" s="1" t="s">
         <v>51</v>
@@ -6608,7 +6647,7 @@
       </c>
       <c r="K190" s="15"/>
     </row>
-    <row r="191" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="12.75" customHeight="1">
       <c r="A191" s="32"/>
       <c r="B191" s="1" t="s">
         <v>52</v>
@@ -6639,7 +6678,7 @@
       </c>
       <c r="K191" s="15"/>
     </row>
-    <row r="192" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="12.75" customHeight="1">
       <c r="A192" s="32"/>
       <c r="B192" s="1" t="s">
         <v>53</v>
@@ -6670,7 +6709,7 @@
       </c>
       <c r="K192" s="15"/>
     </row>
-    <row r="193" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="12.75" customHeight="1">
       <c r="A193" s="32"/>
       <c r="B193" s="1" t="s">
         <v>54</v>
@@ -6701,7 +6740,7 @@
       </c>
       <c r="K193" s="15"/>
     </row>
-    <row r="194" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="12.75" customHeight="1">
       <c r="A194" s="32"/>
       <c r="B194" s="1" t="s">
         <v>55</v>
@@ -6732,7 +6771,7 @@
       </c>
       <c r="K194" s="15"/>
     </row>
-    <row r="195" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="12.75" customHeight="1">
       <c r="A195" s="32"/>
       <c r="B195" s="1" t="s">
         <v>56</v>
@@ -6763,7 +6802,7 @@
       </c>
       <c r="K195" s="15"/>
     </row>
-    <row r="196" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="12.75" customHeight="1">
       <c r="A196" s="32"/>
       <c r="B196" s="1" t="s">
         <v>57</v>
@@ -6794,7 +6833,7 @@
       </c>
       <c r="K196" s="15"/>
     </row>
-    <row r="197" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="12.75" customHeight="1">
       <c r="A197" s="32"/>
       <c r="B197" s="1" t="s">
         <v>47</v>
@@ -6825,7 +6864,7 @@
       </c>
       <c r="K197" s="15"/>
     </row>
-    <row r="198" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="12.75" customHeight="1">
       <c r="A198" s="32"/>
       <c r="B198" s="1" t="s">
         <v>48</v>
@@ -6856,7 +6895,7 @@
       </c>
       <c r="K198" s="15"/>
     </row>
-    <row r="199" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="12.75" customHeight="1">
       <c r="A199" s="32"/>
       <c r="B199" s="1" t="s">
         <v>49</v>
@@ -6887,7 +6926,7 @@
       </c>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="12.75" customHeight="1">
       <c r="A200" s="32"/>
       <c r="B200" s="1" t="s">
         <v>50</v>
@@ -6918,7 +6957,7 @@
       </c>
       <c r="K200" s="15"/>
     </row>
-    <row r="201" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="12.75" customHeight="1">
       <c r="A201" s="32" t="s">
         <v>31</v>
       </c>
@@ -6953,7 +6992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="12.75" customHeight="1">
       <c r="A202" s="32"/>
       <c r="B202" s="1" t="s">
         <v>51</v>
@@ -6984,7 +7023,7 @@
       </c>
       <c r="K202" s="15"/>
     </row>
-    <row r="203" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="12.75" customHeight="1">
       <c r="A203" s="32"/>
       <c r="B203" s="1" t="s">
         <v>52</v>
@@ -7015,7 +7054,7 @@
       </c>
       <c r="K203" s="15"/>
     </row>
-    <row r="204" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="12.75" customHeight="1">
       <c r="A204" s="32"/>
       <c r="B204" s="1" t="s">
         <v>53</v>
@@ -7046,7 +7085,7 @@
       </c>
       <c r="K204" s="15"/>
     </row>
-    <row r="205" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="12.75" customHeight="1">
       <c r="A205" s="32"/>
       <c r="B205" s="1" t="s">
         <v>54</v>
@@ -7077,7 +7116,7 @@
       </c>
       <c r="K205" s="15"/>
     </row>
-    <row r="206" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="12.75" customHeight="1">
       <c r="A206" s="32"/>
       <c r="B206" s="1" t="s">
         <v>55</v>
@@ -7108,7 +7147,7 @@
       </c>
       <c r="K206" s="15"/>
     </row>
-    <row r="207" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="12.75" customHeight="1">
       <c r="A207" s="32"/>
       <c r="B207" s="1" t="s">
         <v>56</v>
@@ -7139,7 +7178,7 @@
       </c>
       <c r="K207" s="15"/>
     </row>
-    <row r="208" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="12.75" customHeight="1">
       <c r="A208" s="32"/>
       <c r="B208" s="1" t="s">
         <v>57</v>
@@ -7170,7 +7209,7 @@
       </c>
       <c r="K208" s="15"/>
     </row>
-    <row r="209" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="12.75" customHeight="1">
       <c r="A209" s="32"/>
       <c r="B209" s="1" t="s">
         <v>47</v>
@@ -7201,7 +7240,7 @@
       </c>
       <c r="K209" s="15"/>
     </row>
-    <row r="210" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="12.75" customHeight="1">
       <c r="A210" s="32"/>
       <c r="B210" s="1" t="s">
         <v>48</v>
@@ -7232,7 +7271,7 @@
       </c>
       <c r="K210" s="15"/>
     </row>
-    <row r="211" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="12.75" customHeight="1">
       <c r="A211" s="32"/>
       <c r="B211" s="1" t="s">
         <v>49</v>
@@ -7263,7 +7302,7 @@
       </c>
       <c r="K211" s="15"/>
     </row>
-    <row r="212" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="12.75" customHeight="1">
       <c r="A212" s="32"/>
       <c r="B212" s="1" t="s">
         <v>50</v>
@@ -7294,7 +7333,7 @@
       </c>
       <c r="K212" s="15"/>
     </row>
-    <row r="213" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="12.75" customHeight="1">
       <c r="A213" s="32" t="s">
         <v>32</v>
       </c>
@@ -7329,7 +7368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="12.75" customHeight="1">
       <c r="A214" s="32"/>
       <c r="B214" s="1" t="s">
         <v>51</v>
@@ -7360,7 +7399,7 @@
       </c>
       <c r="K214" s="15"/>
     </row>
-    <row r="215" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="12.75" customHeight="1">
       <c r="A215" s="32"/>
       <c r="B215" s="1" t="s">
         <v>52</v>
@@ -7391,7 +7430,7 @@
       </c>
       <c r="K215" s="15"/>
     </row>
-    <row r="216" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="12.75" customHeight="1">
       <c r="A216" s="32"/>
       <c r="B216" s="1" t="s">
         <v>53</v>
@@ -7422,7 +7461,7 @@
       </c>
       <c r="K216" s="15"/>
     </row>
-    <row r="217" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="12.75" customHeight="1">
       <c r="A217" s="32"/>
       <c r="B217" s="1" t="s">
         <v>54</v>
@@ -7453,7 +7492,7 @@
       </c>
       <c r="K217" s="15"/>
     </row>
-    <row r="218" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="12.75" customHeight="1">
       <c r="A218" s="32"/>
       <c r="B218" s="1" t="s">
         <v>55</v>
@@ -7484,7 +7523,7 @@
       </c>
       <c r="K218" s="15"/>
     </row>
-    <row r="219" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="12.75" customHeight="1">
       <c r="A219" s="32"/>
       <c r="B219" s="1" t="s">
         <v>56</v>
@@ -7515,7 +7554,7 @@
       </c>
       <c r="K219" s="15"/>
     </row>
-    <row r="220" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="12.75" customHeight="1">
       <c r="A220" s="32"/>
       <c r="B220" s="1" t="s">
         <v>57</v>
@@ -7546,7 +7585,7 @@
       </c>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="12.75" customHeight="1">
       <c r="A221" s="32"/>
       <c r="B221" s="1" t="s">
         <v>47</v>
@@ -7577,7 +7616,7 @@
       </c>
       <c r="K221" s="15"/>
     </row>
-    <row r="222" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="12.75" customHeight="1">
       <c r="A222" s="32"/>
       <c r="B222" s="1" t="s">
         <v>48</v>
@@ -7608,7 +7647,7 @@
       </c>
       <c r="K222" s="15"/>
     </row>
-    <row r="223" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="12.75" customHeight="1">
       <c r="A223" s="32"/>
       <c r="B223" s="1" t="s">
         <v>49</v>
@@ -7639,7 +7678,7 @@
       </c>
       <c r="K223" s="15"/>
     </row>
-    <row r="224" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="12.75" customHeight="1">
       <c r="A224" s="32"/>
       <c r="B224" s="1" t="s">
         <v>50</v>
@@ -7670,7 +7709,7 @@
       </c>
       <c r="K224" s="15"/>
     </row>
-    <row r="225" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="12.75" customHeight="1">
       <c r="A225" s="32" t="s">
         <v>33</v>
       </c>
@@ -7705,7 +7744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="12.75" customHeight="1">
       <c r="A226" s="32"/>
       <c r="B226" s="1" t="s">
         <v>51</v>
@@ -7736,7 +7775,7 @@
       </c>
       <c r="K226" s="15"/>
     </row>
-    <row r="227" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="12.75" customHeight="1">
       <c r="A227" s="32"/>
       <c r="B227" s="1" t="s">
         <v>52</v>
@@ -7767,7 +7806,7 @@
       </c>
       <c r="K227" s="15"/>
     </row>
-    <row r="228" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="12.75" customHeight="1">
       <c r="A228" s="32"/>
       <c r="B228" s="1" t="s">
         <v>53</v>
@@ -7798,7 +7837,7 @@
       </c>
       <c r="K228" s="15"/>
     </row>
-    <row r="229" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="12.75" customHeight="1">
       <c r="A229" s="32"/>
       <c r="B229" s="1" t="s">
         <v>54</v>
@@ -7829,7 +7868,7 @@
       </c>
       <c r="K229" s="15"/>
     </row>
-    <row r="230" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="12.75" customHeight="1">
       <c r="A230" s="32"/>
       <c r="B230" s="1" t="s">
         <v>55</v>
@@ -7860,7 +7899,7 @@
       </c>
       <c r="K230" s="15"/>
     </row>
-    <row r="231" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="12.75" customHeight="1">
       <c r="A231" s="32"/>
       <c r="B231" s="1" t="s">
         <v>56</v>
@@ -7891,7 +7930,7 @@
       </c>
       <c r="K231" s="15"/>
     </row>
-    <row r="232" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="12" customHeight="1">
       <c r="A232" s="32"/>
       <c r="B232" s="1" t="s">
         <v>57</v>
@@ -7922,7 +7961,7 @@
       </c>
       <c r="K232" s="15"/>
     </row>
-    <row r="233" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="12" customHeight="1">
       <c r="A233" s="32"/>
       <c r="B233" s="1" t="s">
         <v>47</v>
@@ -7953,7 +7992,7 @@
       </c>
       <c r="K233" s="15"/>
     </row>
-    <row r="234" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="12" customHeight="1">
       <c r="A234" s="32"/>
       <c r="B234" s="1" t="s">
         <v>48</v>
@@ -7984,7 +8023,7 @@
       </c>
       <c r="K234" s="15"/>
     </row>
-    <row r="235" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="12" customHeight="1">
       <c r="A235" s="32"/>
       <c r="B235" s="1" t="s">
         <v>49</v>
@@ -8015,7 +8054,7 @@
       </c>
       <c r="K235" s="15"/>
     </row>
-    <row r="236" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="12" customHeight="1">
       <c r="A236" s="32"/>
       <c r="B236" s="1" t="s">
         <v>50</v>
@@ -8046,7 +8085,7 @@
       </c>
       <c r="K236" s="15"/>
     </row>
-    <row r="237" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="12" customHeight="1">
       <c r="A237" s="32" t="s">
         <v>34</v>
       </c>
@@ -8081,7 +8120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="12" customHeight="1">
       <c r="A238" s="32"/>
       <c r="B238" s="1" t="s">
         <v>51</v>
@@ -8112,7 +8151,7 @@
       </c>
       <c r="K238" s="15"/>
     </row>
-    <row r="239" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="12" customHeight="1">
       <c r="A239" s="32"/>
       <c r="B239" s="1" t="s">
         <v>52</v>
@@ -8143,7 +8182,7 @@
       </c>
       <c r="K239" s="15"/>
     </row>
-    <row r="240" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="12" customHeight="1">
       <c r="A240" s="32"/>
       <c r="B240" s="1" t="s">
         <v>53</v>
@@ -8174,7 +8213,7 @@
       </c>
       <c r="K240" s="15"/>
     </row>
-    <row r="241" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="12" customHeight="1">
       <c r="A241" s="32"/>
       <c r="B241" s="1" t="s">
         <v>54</v>
@@ -8205,7 +8244,7 @@
       </c>
       <c r="K241" s="15"/>
     </row>
-    <row r="242" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="12" customHeight="1">
       <c r="A242" s="32"/>
       <c r="B242" s="1" t="s">
         <v>55</v>
@@ -8236,7 +8275,7 @@
       </c>
       <c r="K242" s="15"/>
     </row>
-    <row r="243" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="12" customHeight="1">
       <c r="A243" s="32"/>
       <c r="B243" s="1" t="s">
         <v>56</v>
@@ -8267,7 +8306,7 @@
       </c>
       <c r="K243" s="15"/>
     </row>
-    <row r="244" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="12" customHeight="1">
       <c r="A244" s="32"/>
       <c r="B244" s="1" t="s">
         <v>57</v>
@@ -8298,7 +8337,7 @@
       </c>
       <c r="K244" s="15"/>
     </row>
-    <row r="245" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="12" customHeight="1">
       <c r="A245" s="32"/>
       <c r="B245" s="1" t="s">
         <v>47</v>
@@ -8329,7 +8368,7 @@
       </c>
       <c r="K245" s="15"/>
     </row>
-    <row r="246" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="12" customHeight="1">
       <c r="A246" s="32"/>
       <c r="B246" s="1" t="s">
         <v>48</v>
@@ -8360,7 +8399,7 @@
       </c>
       <c r="K246" s="15"/>
     </row>
-    <row r="247" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="12.75" customHeight="1">
       <c r="A247" s="32"/>
       <c r="B247" s="1" t="s">
         <v>49</v>
@@ -8391,7 +8430,7 @@
       </c>
       <c r="K247" s="15"/>
     </row>
-    <row r="248" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="12.75" customHeight="1">
       <c r="A248" s="32"/>
       <c r="B248" s="1" t="s">
         <v>50</v>
@@ -8422,7 +8461,7 @@
       </c>
       <c r="K248" s="15"/>
     </row>
-    <row r="249" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="12.75" customHeight="1">
       <c r="A249" s="32" t="s">
         <v>59</v>
       </c>
@@ -8457,7 +8496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="12.75" customHeight="1">
       <c r="A250" s="32"/>
       <c r="B250" s="1" t="s">
         <v>51</v>
@@ -8488,7 +8527,7 @@
       </c>
       <c r="K250" s="15"/>
     </row>
-    <row r="251" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="12.75" customHeight="1">
       <c r="A251" s="32"/>
       <c r="B251" s="1" t="s">
         <v>52</v>
@@ -8519,7 +8558,7 @@
       </c>
       <c r="K251" s="15"/>
     </row>
-    <row r="252" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="12.75" customHeight="1">
       <c r="A252" s="32"/>
       <c r="B252" s="1" t="s">
         <v>53</v>
@@ -8550,7 +8589,7 @@
       </c>
       <c r="K252" s="15"/>
     </row>
-    <row r="253" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="12.75" customHeight="1">
       <c r="A253" s="32"/>
       <c r="B253" s="1" t="s">
         <v>54</v>
@@ -8581,7 +8620,7 @@
       </c>
       <c r="K253" s="15"/>
     </row>
-    <row r="254" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="12.75" customHeight="1">
       <c r="A254" s="32"/>
       <c r="B254" s="1" t="s">
         <v>55</v>
@@ -8612,7 +8651,7 @@
       </c>
       <c r="K254" s="15"/>
     </row>
-    <row r="255" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="12.75" customHeight="1">
       <c r="A255" s="32"/>
       <c r="B255" s="1" t="s">
         <v>56</v>
@@ -8643,34 +8682,117 @@
       </c>
       <c r="K255" s="15"/>
     </row>
-    <row r="258" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C258" s="29"/>
-      <c r="D258" s="29"/>
-      <c r="E258" s="29"/>
-      <c r="F258" s="29"/>
-      <c r="G258" s="29"/>
-      <c r="H258" s="29"/>
-      <c r="I258" s="29"/>
-    </row>
-    <row r="259" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C259" s="29"/>
-      <c r="D259" s="29"/>
-      <c r="E259" s="29"/>
-      <c r="F259" s="29"/>
-      <c r="G259" s="29"/>
-      <c r="H259" s="29"/>
-      <c r="I259" s="29"/>
+    <row r="256" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A256" s="32"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="10"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="10"/>
+      <c r="F256" s="10"/>
+      <c r="G256" s="10"/>
+      <c r="H256" s="10"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="15"/>
+    </row>
+    <row r="257" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A257" s="32"/>
+      <c r="B257" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C257" s="36"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="15"/>
+    </row>
+    <row r="258" spans="1:11" ht="22.15" customHeight="1">
+      <c r="B258" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C258" s="34"/>
+      <c r="D258" s="34"/>
+      <c r="E258" s="34"/>
+      <c r="F258" s="34"/>
+      <c r="G258" s="34"/>
+      <c r="H258" s="34"/>
+      <c r="I258" s="34"/>
+      <c r="J258" s="34"/>
+      <c r="K258" s="34"/>
+    </row>
+    <row r="259" spans="1:11" ht="27.6" customHeight="1">
+      <c r="B259" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C259" s="34"/>
+      <c r="D259" s="34"/>
+      <c r="E259" s="34"/>
+      <c r="F259" s="34"/>
+      <c r="G259" s="34"/>
+      <c r="H259" s="34"/>
+      <c r="I259" s="34"/>
+      <c r="J259" s="34"/>
+      <c r="K259" s="34"/>
+    </row>
+    <row r="260" spans="1:11" ht="30" customHeight="1">
+      <c r="B260" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C260" s="34"/>
+      <c r="D260" s="34"/>
+      <c r="E260" s="34"/>
+      <c r="F260" s="34"/>
+      <c r="G260" s="34"/>
+      <c r="H260" s="34"/>
+      <c r="I260" s="34"/>
+      <c r="J260" s="34"/>
+      <c r="K260" s="34"/>
+    </row>
+    <row r="261" spans="1:11" ht="30.6" customHeight="1">
+      <c r="B261" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C261" s="34"/>
+      <c r="D261" s="34"/>
+      <c r="E261" s="34"/>
+      <c r="F261" s="34"/>
+      <c r="G261" s="34"/>
+      <c r="H261" s="34"/>
+      <c r="I261" s="34"/>
+      <c r="J261" s="34"/>
+      <c r="K261" s="34"/>
+    </row>
+    <row r="264" spans="1:11">
+      <c r="C264" s="29"/>
+      <c r="D264" s="29"/>
+      <c r="E264" s="29"/>
+      <c r="F264" s="29"/>
+      <c r="G264" s="29"/>
+      <c r="H264" s="29"/>
+      <c r="I264" s="29"/>
+    </row>
+    <row r="265" spans="1:11">
+      <c r="C265" s="29"/>
+      <c r="D265" s="29"/>
+      <c r="E265" s="29"/>
+      <c r="F265" s="29"/>
+      <c r="G265" s="29"/>
+      <c r="H265" s="29"/>
+      <c r="I265" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J7:K9"/>
-    <mergeCell ref="A7:B9"/>
-    <mergeCell ref="C7:I7"/>
+  <mergeCells count="13">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B259:K259"/>
+    <mergeCell ref="B260:K260"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="J7:K9"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B258:K258"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8684,7 +8806,7 @@
     <brk id="110" max="10" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="A33:A161 K33:K161 K10:K24 A10:A24 K165 A165 K25 A25" numberStoredAsText="1"/>
+    <ignoredError sqref="A258:A260 A33:A161 K33:K161 K10:K24 A10:A24 K165 A165 K25 A25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8698,77 +8820,77 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P258" sqref="P258"/>
       <selection activeCell="P258" sqref="P258"/>
-      <selection pane="bottomLeft" activeCell="P258" sqref="P258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="8.6999999999999993" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="9.75"/>
   <cols>
-    <col min="1" max="1" width="4.27734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.71875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.71875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="4.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.27734375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="12.3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="12.75">
       <c r="B1" s="23" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C1" s="31"/>
-      <c r="D1" s="54">
+      <c r="D1" s="60">
         <v>44796</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="26"/>
       <c r="G1" s="27"/>
       <c r="H1" s="28"/>
     </row>
-    <row r="3" spans="1:33" ht="11.4" x14ac:dyDescent="0.4">
-      <c r="B3" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="56"/>
-    </row>
-    <row r="4" spans="1:33" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="B4" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-    </row>
-    <row r="5" spans="1:33" ht="11.4" x14ac:dyDescent="0.4">
-      <c r="B5" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="7" spans="1:33" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40"/>
+    <row r="3" spans="1:33" ht="12">
+      <c r="B3" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="62"/>
+    </row>
+    <row r="4" spans="1:33" ht="12.75">
+      <c r="B4" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+    </row>
+    <row r="5" spans="1:33" ht="12">
+      <c r="B5" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+    </row>
+    <row r="7" spans="1:33" s="14" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -8792,36 +8914,36 @@
       <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
     </row>
-    <row r="8" spans="1:33" s="14" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
+    <row r="8" spans="1:33" s="14" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
-    </row>
-    <row r="9" spans="1:33" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
+        <v>76</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:33" s="4" customFormat="1" ht="8.25" customHeight="1">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="5">
         <v>1</v>
       </c>
@@ -8843,10 +8965,10 @@
       <c r="I9" s="5">
         <v>7</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A10" s="18">
         <v>1999</v>
       </c>
@@ -8875,7 +8997,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="18">
         <v>2000</v>
       </c>
@@ -8904,7 +9026,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="18">
         <v>2001</v>
       </c>
@@ -8933,7 +9055,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A13" s="18">
         <v>2002</v>
       </c>
@@ -8962,7 +9084,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="18">
         <v>2003</v>
       </c>
@@ -8991,7 +9113,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A15" s="18">
         <v>2004</v>
       </c>
@@ -9020,7 +9142,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="18">
         <v>2005</v>
       </c>
@@ -9049,7 +9171,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="18">
         <v>2006</v>
       </c>
@@ -9078,7 +9200,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A18" s="18">
         <v>2007</v>
       </c>
@@ -9107,7 +9229,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="18">
         <v>2008</v>
       </c>
@@ -9136,7 +9258,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A20" s="18">
         <v>2009</v>
       </c>
@@ -9165,7 +9287,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A21" s="18">
         <v>2010</v>
       </c>
@@ -9194,7 +9316,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A22" s="18">
         <v>2011</v>
       </c>
@@ -9223,7 +9345,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="18">
         <v>2012</v>
       </c>
@@ -9252,7 +9374,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="18">
         <v>2013</v>
       </c>
@@ -9281,7 +9403,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A25" s="18">
         <v>2014</v>
       </c>
@@ -9310,7 +9432,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A26" s="18">
         <v>2015</v>
       </c>
@@ -9339,7 +9461,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A27" s="18">
         <v>2016</v>
       </c>
@@ -9368,7 +9490,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A28" s="18">
         <v>2017</v>
       </c>
@@ -9397,7 +9519,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A29" s="18">
         <v>2018</v>
       </c>
@@ -9426,7 +9548,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="18">
         <v>2019</v>
       </c>
@@ -9455,7 +9577,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="18">
         <v>2020</v>
       </c>
@@ -9484,7 +9606,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="18">
         <v>2021</v>
       </c>
@@ -9513,12 +9635,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1">
       <c r="A33" s="18">
         <v>2004</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C33" s="9">
         <v>3321</v>
@@ -9542,15 +9664,15 @@
         <v>239751</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K33" s="19">
         <v>2004</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C34" s="9">
         <v>3066</v>
@@ -9574,12 +9696,12 @@
         <v>241783</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C35" s="9">
         <v>3342</v>
@@ -9603,12 +9725,12 @@
         <v>251158</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C36" s="9">
         <v>3364</v>
@@ -9632,12 +9754,12 @@
         <v>253793</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" customHeight="1">
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C37" s="9">
         <v>3627</v>
@@ -9661,12 +9783,12 @@
         <v>259887</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" customHeight="1">
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C38" s="9">
         <v>3162</v>
@@ -9690,12 +9812,12 @@
         <v>262260</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C39" s="9">
         <v>3272</v>
@@ -9719,12 +9841,12 @@
         <v>274906</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" customHeight="1">
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C40" s="9">
         <v>3383</v>
@@ -9748,12 +9870,12 @@
         <v>285514</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C41" s="9">
         <v>3866</v>
@@ -9777,12 +9899,12 @@
         <v>296070</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C42" s="9">
         <v>4166</v>
@@ -9806,12 +9928,12 @@
         <v>307124</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1">
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C43" s="9">
         <v>5199</v>
@@ -9835,12 +9957,12 @@
         <v>311478</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1">
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C44" s="9">
         <v>5152</v>
@@ -9864,15 +9986,15 @@
         <v>322876</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1">
       <c r="A45" s="32">
         <v>2005</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C45" s="9">
         <v>5362</v>
@@ -9896,15 +10018,15 @@
         <v>315464</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K45" s="15">
         <v>2005</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="12.75" customHeight="1">
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C46" s="9">
         <v>5143</v>
@@ -9928,13 +10050,13 @@
         <v>324625</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="12.75" customHeight="1">
       <c r="B47" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C47" s="9">
         <v>4916</v>
@@ -9958,13 +10080,13 @@
         <v>331331</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="12.75" customHeight="1">
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C48" s="9">
         <v>5122</v>
@@ -9988,13 +10110,13 @@
         <v>343047</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="12.75" customHeight="1">
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C49" s="9">
         <v>5818</v>
@@ -10018,13 +10140,13 @@
         <v>358071</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="12.75" customHeight="1">
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C50" s="9">
         <v>5357</v>
@@ -10048,13 +10170,13 @@
         <v>374106</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="12.75" customHeight="1">
       <c r="B51" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C51" s="9">
         <v>5409</v>
@@ -10078,13 +10200,13 @@
         <v>389010</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="12.75" customHeight="1">
       <c r="B52" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C52" s="9">
         <v>5819</v>
@@ -10108,13 +10230,13 @@
         <v>404739</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="12.75" customHeight="1">
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C53" s="9">
         <v>6444</v>
@@ -10138,13 +10260,13 @@
         <v>422441</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="12.75" customHeight="1">
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C54" s="9">
         <v>6367</v>
@@ -10168,13 +10290,13 @@
         <v>431919</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="12.75" customHeight="1">
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C55" s="9">
         <v>7820</v>
@@ -10198,13 +10320,13 @@
         <v>445124</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="12.75" customHeight="1">
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C56" s="9">
         <v>8645</v>
@@ -10228,16 +10350,16 @@
         <v>458870</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="12.75" customHeight="1">
       <c r="A57" s="32">
         <v>2006</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C57" s="9">
         <v>8185</v>
@@ -10261,15 +10383,15 @@
         <v>454754</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K57" s="15">
         <v>2006</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="12.75" customHeight="1">
       <c r="B58" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C58" s="9">
         <v>10958</v>
@@ -10293,13 +10415,13 @@
         <v>465575</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="12.75" customHeight="1">
       <c r="B59" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C59" s="9">
         <v>10514</v>
@@ -10323,13 +10445,13 @@
         <v>471803</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="12.75" customHeight="1">
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C60" s="9">
         <v>9952</v>
@@ -10353,13 +10475,13 @@
         <v>483883</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="12.75" customHeight="1">
       <c r="B61" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C61" s="9">
         <v>12663</v>
@@ -10383,13 +10505,13 @@
         <v>503007</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="12.75" customHeight="1">
       <c r="B62" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C62" s="9">
         <v>15416</v>
@@ -10413,13 +10535,13 @@
         <v>514151</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="12.75" customHeight="1">
       <c r="B63" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C63" s="9">
         <v>12842</v>
@@ -10443,13 +10565,13 @@
         <v>519218</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="12.75" customHeight="1">
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C64" s="9">
         <v>13991</v>
@@ -10473,13 +10595,13 @@
         <v>552077</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="12.75" customHeight="1">
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C65" s="9">
         <v>14902</v>
@@ -10503,13 +10625,13 @@
         <v>565632</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="12.75" customHeight="1">
       <c r="B66" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C66" s="9">
         <v>15508</v>
@@ -10533,13 +10655,13 @@
         <v>567050</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="12.75" customHeight="1">
       <c r="B67" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C67" s="9">
         <v>15393</v>
@@ -10563,13 +10685,13 @@
         <v>585476</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K67" s="11"/>
     </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="12.75" customHeight="1">
       <c r="B68" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C68" s="9">
         <v>18472</v>
@@ -10593,16 +10715,16 @@
         <v>634470</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="12.75" customHeight="1">
       <c r="A69" s="32">
         <v>2007</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C69" s="9">
         <v>19467</v>
@@ -10626,15 +10748,15 @@
         <v>622662</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K69" s="15">
         <v>2007</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="12.75" customHeight="1">
       <c r="B70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C70" s="9">
         <v>19435</v>
@@ -10658,13 +10780,13 @@
         <v>640982</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="12.75" customHeight="1">
       <c r="B71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C71" s="9">
         <v>19829</v>
@@ -10688,13 +10810,13 @@
         <v>669189</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="12.75" customHeight="1">
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C72" s="9">
         <v>20307</v>
@@ -10718,13 +10840,13 @@
         <v>676960</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="12.75" customHeight="1">
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C73" s="9">
         <v>22477</v>
@@ -10748,13 +10870,13 @@
         <v>702507</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="12.75" customHeight="1">
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C74" s="9">
         <v>21516</v>
@@ -10778,13 +10900,13 @@
         <v>708667</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="12.75" customHeight="1">
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C75" s="9">
         <v>22980</v>
@@ -10808,13 +10930,13 @@
         <v>745948</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="12.75" customHeight="1">
       <c r="B76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C76" s="9">
         <v>24559</v>
@@ -10838,13 +10960,13 @@
         <v>781544</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="12.75" customHeight="1">
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C77" s="9">
         <v>24478</v>
@@ -10868,13 +10990,13 @@
         <v>791495</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="12.75" customHeight="1">
       <c r="B78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C78" s="9">
         <v>24560</v>
@@ -10898,13 +11020,13 @@
         <v>791890</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="12.75" customHeight="1">
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C79" s="9">
         <v>26742</v>
@@ -10928,13 +11050,13 @@
         <v>878013</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="12.75" customHeight="1">
       <c r="B80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C80" s="9">
         <v>26501</v>
@@ -10958,16 +11080,16 @@
         <v>903871</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="12.75" customHeight="1">
       <c r="A81" s="18">
         <v>2008</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C81" s="9">
         <v>29012</v>
@@ -10991,15 +11113,15 @@
         <v>936269</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K81" s="19">
         <v>2008</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="12.75" customHeight="1">
       <c r="B82" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C82" s="9">
         <v>31564</v>
@@ -11023,13 +11145,13 @@
         <v>939013</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="12.75" customHeight="1">
       <c r="B83" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C83" s="9">
         <v>38918</v>
@@ -11053,13 +11175,13 @@
         <v>953522</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="12.75" customHeight="1">
       <c r="B84" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C84" s="9">
         <v>32095</v>
@@ -11083,13 +11205,13 @@
         <v>942847</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="12.75" customHeight="1">
       <c r="B85" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C85" s="9">
         <v>41871</v>
@@ -11113,12 +11235,12 @@
         <v>979014</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="12.75" customHeight="1">
       <c r="B86" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C86" s="9">
         <v>35110</v>
@@ -11142,12 +11264,12 @@
         <v>947205</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="12.75" customHeight="1">
       <c r="B87" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C87" s="9">
         <v>59803</v>
@@ -11171,12 +11293,12 @@
         <v>936541</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="12.75" customHeight="1">
       <c r="B88" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C88" s="9">
         <v>65117</v>
@@ -11200,12 +11322,12 @@
         <v>966666</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="12.75" customHeight="1">
       <c r="B89" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C89" s="9">
         <v>69083</v>
@@ -11229,12 +11351,12 @@
         <v>985134</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="12.75" customHeight="1">
       <c r="B90" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C90" s="9">
         <v>73657</v>
@@ -11258,12 +11380,12 @@
         <v>974309</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="12.75" customHeight="1">
       <c r="B91" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C91" s="9">
         <v>76503</v>
@@ -11287,12 +11409,12 @@
         <v>999804</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="12.75" customHeight="1">
       <c r="B92" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C92" s="9">
         <v>84505</v>
@@ -11316,15 +11438,15 @@
         <v>992151</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="12.75" customHeight="1">
       <c r="A93" s="18">
         <v>2009</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C93" s="9">
         <v>86103</v>
@@ -11348,15 +11470,15 @@
         <v>1005086</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K93" s="19">
         <v>2009</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="12" customHeight="1">
       <c r="B94" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C94" s="9">
         <v>84807</v>
@@ -11380,12 +11502,12 @@
         <v>1026130</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="12" customHeight="1">
       <c r="B95" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C95" s="9">
         <v>83765</v>
@@ -11409,12 +11531,12 @@
         <v>1015151</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="12" customHeight="1">
       <c r="B96" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C96" s="9">
         <v>86609</v>
@@ -11438,12 +11560,12 @@
         <v>1036744</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="12" customHeight="1">
       <c r="B97" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C97" s="9">
         <v>84527</v>
@@ -11467,12 +11589,12 @@
         <v>1042153</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="12" customHeight="1">
       <c r="B98" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C98" s="9">
         <v>85306</v>
@@ -11496,12 +11618,12 @@
         <v>1061425</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="12" customHeight="1">
       <c r="B99" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C99" s="9">
         <v>85531</v>
@@ -11525,12 +11647,12 @@
         <v>1065592</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="12" customHeight="1">
       <c r="B100" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C100" s="9">
         <v>86976</v>
@@ -11554,12 +11676,12 @@
         <v>1081084</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="12" customHeight="1">
       <c r="B101" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C101" s="9">
         <v>88441</v>
@@ -11583,12 +11705,12 @@
         <v>1087244</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="12" customHeight="1">
       <c r="B102" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C102" s="9">
         <v>96934</v>
@@ -11612,12 +11734,12 @@
         <v>1099559</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="12" customHeight="1">
       <c r="B103" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C103" s="9">
         <v>101055</v>
@@ -11641,12 +11763,12 @@
         <v>1154967</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="12" customHeight="1">
       <c r="B104" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C104" s="10">
         <v>91373</v>
@@ -11670,15 +11792,15 @@
         <v>1205570</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="12" customHeight="1">
       <c r="A105" s="18">
         <v>2010</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C105" s="10">
         <v>94366</v>
@@ -11702,15 +11824,15 @@
         <v>1209331</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K105" s="19">
         <v>2010</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="12" customHeight="1">
       <c r="B106" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C106" s="10">
         <v>97927</v>
@@ -11734,12 +11856,12 @@
         <v>1216615</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="12" customHeight="1">
       <c r="B107" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C107" s="10">
         <v>101024</v>
@@ -11763,12 +11885,12 @@
         <v>1217759</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="12" customHeight="1">
       <c r="B108" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C108" s="10">
         <v>100323</v>
@@ -11792,12 +11914,12 @@
         <v>1226461</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="12" customHeight="1">
       <c r="B109" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C109" s="10">
         <v>110137</v>
@@ -11821,12 +11943,12 @@
         <v>1278762</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="12" customHeight="1">
       <c r="B110" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C110" s="10">
         <v>107795</v>
@@ -11850,12 +11972,12 @@
         <v>1296183</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="12" customHeight="1">
       <c r="B111" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C111" s="10">
         <v>106186</v>
@@ -11879,12 +12001,12 @@
         <v>1331405</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="12" customHeight="1">
       <c r="B112" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C112" s="10">
         <v>90137</v>
@@ -11908,12 +12030,12 @@
         <v>1288858</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="12" customHeight="1">
       <c r="B113" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C113" s="10">
         <v>90337</v>
@@ -11937,12 +12059,12 @@
         <v>1306003</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="12" customHeight="1">
       <c r="B114" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C114" s="10">
         <v>91674</v>
@@ -11966,12 +12088,12 @@
         <v>1330165</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="12" customHeight="1">
       <c r="B115" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C115" s="10">
         <v>97605</v>
@@ -11995,12 +12117,12 @@
         <v>1361850</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="12" customHeight="1">
       <c r="B116" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C116" s="10">
         <v>82894</v>
@@ -12024,15 +12146,15 @@
         <v>1360777</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="12" customHeight="1">
       <c r="A117" s="18">
         <v>2011</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C117" s="10">
         <v>80559</v>
@@ -12056,15 +12178,15 @@
         <v>1323993</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K117" s="19">
         <v>2011</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="12" customHeight="1">
       <c r="B118" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C118" s="10">
         <v>66636</v>
@@ -12088,12 +12210,12 @@
         <v>1308787</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="12" customHeight="1">
       <c r="B119" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C119" s="10">
         <v>68417</v>
@@ -12117,12 +12239,12 @@
         <v>1315641</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="12" customHeight="1">
       <c r="B120" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C120" s="10">
         <v>66576</v>
@@ -12146,12 +12268,12 @@
         <v>1287216</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="12" customHeight="1">
       <c r="B121" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C121" s="10">
         <v>80012</v>
@@ -12175,12 +12297,12 @@
         <v>1287252</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="12" customHeight="1">
       <c r="B122" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C122" s="10">
         <v>69221</v>
@@ -12204,12 +12326,12 @@
         <v>1344773</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="12" customHeight="1">
       <c r="B123" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C123" s="10">
         <v>68905</v>
@@ -12233,12 +12355,12 @@
         <v>1391702</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="12" customHeight="1">
       <c r="B124" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C124" s="10">
         <v>70881</v>
@@ -12262,12 +12384,12 @@
         <v>1405830</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="12" customHeight="1">
       <c r="B125" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C125" s="10">
         <v>76163</v>
@@ -12291,12 +12413,12 @@
         <v>1412180</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="12" customHeight="1">
       <c r="B126" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C126" s="10">
         <v>76678</v>
@@ -12320,12 +12442,12 @@
         <v>1412047</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="12" customHeight="1">
       <c r="B127" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C127" s="10">
         <v>71797</v>
@@ -12349,12 +12471,12 @@
         <v>1457579</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="12" customHeight="1">
       <c r="B128" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C128" s="10">
         <v>73650</v>
@@ -12378,15 +12500,15 @@
         <v>1500444</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="12" customHeight="1">
       <c r="A129" s="18">
         <v>2012</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C129" s="10">
         <v>74588</v>
@@ -12410,15 +12532,15 @@
         <v>1483002</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K129" s="19">
         <v>2012</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="12" customHeight="1">
       <c r="B130" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C130" s="10">
         <v>76601</v>
@@ -12442,12 +12564,12 @@
         <v>1522822</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="12" customHeight="1">
       <c r="B131" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C131" s="10">
         <v>69299</v>
@@ -12471,12 +12593,12 @@
         <v>1499732</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="12" customHeight="1">
       <c r="B132" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C132" s="10">
         <v>67599</v>
@@ -12500,12 +12622,12 @@
         <v>1531168</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="12" customHeight="1">
       <c r="B133" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C133" s="10">
         <v>75671</v>
@@ -12529,12 +12651,12 @@
         <v>1574680</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="12" customHeight="1">
       <c r="B134" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C134" s="10">
         <v>70769</v>
@@ -12558,12 +12680,12 @@
         <v>1588633</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="12" customHeight="1">
       <c r="B135" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C135" s="10">
         <v>70462</v>
@@ -12587,12 +12709,12 @@
         <v>1607517</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="12" customHeight="1">
       <c r="B136" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C136" s="10">
         <v>72010</v>
@@ -12616,12 +12738,12 @@
         <v>1616921</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="12" customHeight="1">
       <c r="B137" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C137" s="10">
         <v>70256</v>
@@ -12645,12 +12767,12 @@
         <v>1607585</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="12" customHeight="1">
       <c r="B138" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C138" s="10">
         <v>69179</v>
@@ -12674,12 +12796,12 @@
         <v>1580245</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="12" customHeight="1">
       <c r="B139" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C139" s="10">
         <v>67197</v>
@@ -12703,12 +12825,12 @@
         <v>1612509</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="12" customHeight="1">
       <c r="B140" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C140" s="10">
         <v>69239</v>
@@ -12732,15 +12854,15 @@
         <v>1641804</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="12" customHeight="1">
       <c r="A141" s="18">
         <v>2013</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C141" s="10">
         <v>69895</v>
@@ -12764,15 +12886,15 @@
         <v>1580200</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K141" s="19">
         <v>2013</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="12" customHeight="1">
       <c r="B142" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C142" s="10">
         <v>71923</v>
@@ -12796,12 +12918,12 @@
         <v>1612919</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="12" customHeight="1">
       <c r="B143" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C143" s="10">
         <v>68647</v>
@@ -12825,12 +12947,12 @@
         <v>1622652</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="12" customHeight="1">
       <c r="B144" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C144" s="10">
         <v>66027</v>
@@ -12854,12 +12976,12 @@
         <v>1604805</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="12" customHeight="1">
       <c r="B145" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C145" s="8">
         <v>70457</v>
@@ -12883,12 +13005,12 @@
         <v>1643816</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="12" customHeight="1">
       <c r="B146" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C146" s="8">
         <v>63560</v>
@@ -12912,12 +13034,12 @@
         <v>1659828</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="12" customHeight="1">
       <c r="B147" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C147" s="8">
         <v>64150</v>
@@ -12941,12 +13063,12 @@
         <v>1661493</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="12" customHeight="1">
       <c r="B148" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C148" s="8">
         <v>68837</v>
@@ -12970,12 +13092,12 @@
         <v>1702250</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="12" customHeight="1">
       <c r="B149" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C149" s="8">
         <v>69055</v>
@@ -12999,12 +13121,12 @@
         <v>1705778</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="12" customHeight="1">
       <c r="B150" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C150" s="8">
         <v>67535</v>
@@ -13028,12 +13150,12 @@
         <v>1698792</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="12" customHeight="1">
       <c r="B151" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C151" s="8">
         <v>66302</v>
@@ -13057,12 +13179,12 @@
         <v>1707578</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="12" customHeight="1">
       <c r="B152" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C152" s="8">
         <v>73636</v>
@@ -13086,15 +13208,15 @@
         <v>1716882</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="12" customHeight="1">
       <c r="A153" s="18">
         <v>2014</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C153" s="8">
         <v>64636</v>
@@ -13118,16 +13240,16 @@
         <v>1679955</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K153" s="19">
         <v>2014</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="12" customHeight="1">
       <c r="A154" s="18"/>
       <c r="B154" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C154" s="8">
         <v>63482</v>
@@ -13151,14 +13273,14 @@
         <v>1678047</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K154" s="19"/>
     </row>
-    <row r="155" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="12" customHeight="1">
       <c r="A155" s="18"/>
       <c r="B155" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C155" s="8">
         <v>65638</v>
@@ -13182,14 +13304,14 @@
         <v>1691354</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K155" s="19"/>
     </row>
-    <row r="156" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="12" customHeight="1">
       <c r="A156" s="18"/>
       <c r="B156" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C156" s="8">
         <v>61384</v>
@@ -13213,14 +13335,14 @@
         <v>1697836</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K156" s="19"/>
     </row>
-    <row r="157" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="12" customHeight="1">
       <c r="A157" s="18"/>
       <c r="B157" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C157" s="8">
         <v>60974</v>
@@ -13244,14 +13366,14 @@
         <v>1715454</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="12" customHeight="1">
       <c r="A158" s="18"/>
       <c r="B158" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C158" s="8">
         <v>65984</v>
@@ -13275,14 +13397,14 @@
         <v>1740244</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="12" customHeight="1">
       <c r="A159" s="18"/>
       <c r="B159" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C159" s="8">
         <v>64524</v>
@@ -13306,14 +13428,14 @@
         <v>1773931</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K159" s="19"/>
     </row>
-    <row r="160" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="12" customHeight="1">
       <c r="A160" s="18"/>
       <c r="B160" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C160" s="10">
         <v>67588</v>
@@ -13337,14 +13459,14 @@
         <v>1806230</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="12" customHeight="1">
       <c r="A161" s="18"/>
       <c r="B161" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C161" s="10">
         <v>59665</v>
@@ -13368,14 +13490,14 @@
         <v>1818444</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K161" s="19"/>
     </row>
-    <row r="162" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="12" customHeight="1">
       <c r="A162" s="18"/>
       <c r="B162" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C162" s="10">
         <v>56979</v>
@@ -13399,14 +13521,14 @@
         <v>1818983</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K162" s="19"/>
     </row>
-    <row r="163" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="12" customHeight="1">
       <c r="A163" s="18"/>
       <c r="B163" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C163" s="8">
         <v>57823</v>
@@ -13430,14 +13552,14 @@
         <v>1829548</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="12" customHeight="1">
       <c r="A164" s="18"/>
       <c r="B164" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C164" s="8">
         <v>46999</v>
@@ -13461,16 +13583,16 @@
         <v>1848191</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K164" s="19"/>
     </row>
-    <row r="165" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="12" customHeight="1">
       <c r="A165" s="18">
         <v>2015</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C165" s="8">
         <v>47819</v>
@@ -13494,16 +13616,16 @@
         <v>1842805</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K165" s="19">
         <v>2015</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="12" customHeight="1">
       <c r="A166" s="18"/>
       <c r="B166" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C166" s="8">
         <v>44618</v>
@@ -13527,14 +13649,14 @@
         <v>1806229</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K166" s="19"/>
     </row>
-    <row r="167" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="12" customHeight="1">
       <c r="A167" s="18"/>
       <c r="B167" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C167" s="8">
         <v>46638</v>
@@ -13558,14 +13680,14 @@
         <v>1816586</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="12" customHeight="1">
       <c r="A168" s="18"/>
       <c r="B168" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C168" s="8">
         <v>49153</v>
@@ -13589,14 +13711,14 @@
         <v>1825305</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K168" s="19"/>
     </row>
-    <row r="169" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="12" customHeight="1">
       <c r="A169" s="18"/>
       <c r="B169" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C169" s="8">
         <v>46369</v>
@@ -13620,14 +13742,14 @@
         <v>1831232</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="12" customHeight="1">
       <c r="A170" s="18"/>
       <c r="B170" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C170" s="8">
         <v>49295</v>
@@ -13651,14 +13773,14 @@
         <v>1855610</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K170" s="19"/>
     </row>
-    <row r="171" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="12" customHeight="1">
       <c r="A171" s="18"/>
       <c r="B171" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C171" s="10">
         <v>38322</v>
@@ -13682,14 +13804,14 @@
         <v>1851642</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="12" customHeight="1">
       <c r="A172" s="18"/>
       <c r="B172" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C172" s="10">
         <v>40363</v>
@@ -13713,14 +13835,14 @@
         <v>1856243</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K172" s="19"/>
     </row>
-    <row r="173" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="12" customHeight="1">
       <c r="A173" s="18"/>
       <c r="B173" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C173" s="10">
         <v>43844</v>
@@ -13744,14 +13866,14 @@
         <v>1871825</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="12" customHeight="1">
       <c r="A174" s="18"/>
       <c r="B174" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C174" s="10">
         <v>40748</v>
@@ -13775,14 +13897,14 @@
         <v>1889959</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K174" s="19"/>
     </row>
-    <row r="175" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="12" customHeight="1">
       <c r="A175" s="18"/>
       <c r="B175" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C175" s="10">
         <v>45338</v>
@@ -13806,14 +13928,14 @@
         <v>1905938</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K175" s="19"/>
     </row>
-    <row r="176" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="12" customHeight="1">
       <c r="A176" s="18"/>
       <c r="B176" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C176" s="10">
         <v>42985</v>
@@ -13837,16 +13959,16 @@
         <v>1969508</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K176" s="19"/>
     </row>
-    <row r="177" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="12" customHeight="1">
       <c r="A177" s="18">
         <v>2016</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C177" s="8">
         <v>44146</v>
@@ -13870,16 +13992,16 @@
         <v>1921641</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K177" s="19">
         <v>2016</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="12" customHeight="1">
       <c r="A178" s="18"/>
       <c r="B178" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C178" s="8">
         <v>45240</v>
@@ -13903,14 +14025,14 @@
         <v>1937483</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K178" s="19"/>
     </row>
-    <row r="179" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="12" customHeight="1">
       <c r="A179" s="18"/>
       <c r="B179" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C179" s="10">
         <v>42459</v>
@@ -13934,14 +14056,14 @@
         <v>1947703</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K179" s="19"/>
     </row>
-    <row r="180" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="12" customHeight="1">
       <c r="A180" s="18"/>
       <c r="B180" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C180" s="10">
         <v>43423</v>
@@ -13965,14 +14087,14 @@
         <v>1961440</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="12" customHeight="1">
       <c r="A181" s="18"/>
       <c r="B181" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C181" s="10">
         <v>48118</v>
@@ -13996,14 +14118,14 @@
         <v>2004279</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K181" s="19"/>
     </row>
-    <row r="182" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="12" customHeight="1">
       <c r="A182" s="18"/>
       <c r="B182" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C182" s="10">
         <v>46216</v>
@@ -14027,14 +14149,14 @@
         <v>2023175</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K182" s="19"/>
     </row>
-    <row r="183" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="12" customHeight="1">
       <c r="A183" s="18"/>
       <c r="B183" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C183" s="10">
         <v>42621</v>
@@ -14058,14 +14180,14 @@
         <v>2034597</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K183" s="19"/>
     </row>
-    <row r="184" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="12" customHeight="1">
       <c r="A184" s="18"/>
       <c r="B184" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C184" s="10">
         <v>44733</v>
@@ -14089,14 +14211,14 @@
         <v>2055146</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K184" s="19"/>
     </row>
-    <row r="185" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="12" customHeight="1">
       <c r="A185" s="18"/>
       <c r="B185" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C185" s="10">
         <v>44059.7</v>
@@ -14120,14 +14242,14 @@
         <v>2087002.8</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K185" s="19"/>
     </row>
-    <row r="186" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="12" customHeight="1">
       <c r="A186" s="18"/>
       <c r="B186" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C186" s="10">
         <v>39674.300000000003</v>
@@ -14151,14 +14273,14 @@
         <v>2095078</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K186" s="19"/>
     </row>
-    <row r="187" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="12" customHeight="1">
       <c r="A187" s="18"/>
       <c r="B187" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C187" s="10">
         <v>42079.6</v>
@@ -14182,14 +14304,14 @@
         <v>2115635.7000000002</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K187" s="19"/>
     </row>
-    <row r="188" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="12" customHeight="1">
       <c r="A188" s="18"/>
       <c r="B188" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C188" s="10">
         <v>45113</v>
@@ -14213,16 +14335,16 @@
         <v>2197051.6</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K188" s="19"/>
     </row>
-    <row r="189" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="12" customHeight="1">
       <c r="A189" s="18">
         <v>2017</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C189" s="10">
         <v>43097.2</v>
@@ -14246,16 +14368,16 @@
         <v>2158371</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K189" s="19">
         <v>2017</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="12" customHeight="1">
       <c r="A190" s="18"/>
       <c r="B190" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C190" s="8">
         <v>44630.8</v>
@@ -14279,14 +14401,14 @@
         <v>2160084</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K190" s="19"/>
     </row>
-    <row r="191" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="12" customHeight="1">
       <c r="A191" s="18"/>
       <c r="B191" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C191" s="10">
         <v>42455.7</v>
@@ -14310,14 +14432,14 @@
         <v>2182729</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K191" s="19"/>
     </row>
-    <row r="192" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="12" customHeight="1">
       <c r="A192" s="18"/>
       <c r="B192" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C192" s="10">
         <v>45002.8</v>
@@ -14341,14 +14463,14 @@
         <v>2171227.7000000002</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K192" s="19"/>
     </row>
-    <row r="193" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="12" customHeight="1">
       <c r="A193" s="18"/>
       <c r="B193" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C193" s="10">
         <v>42596.5</v>
@@ -14372,14 +14494,14 @@
         <v>2184928.9</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K193" s="19"/>
     </row>
-    <row r="194" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="12" customHeight="1">
       <c r="A194" s="18"/>
       <c r="B194" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C194" s="10">
         <v>43856.3</v>
@@ -14403,14 +14525,14 @@
         <v>2173348.2999999998</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K194" s="19"/>
     </row>
-    <row r="195" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="12" customHeight="1">
       <c r="A195" s="18"/>
       <c r="B195" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C195" s="10">
         <v>41900.300000000003</v>
@@ -14434,14 +14556,14 @@
         <v>2173090.4</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K195" s="19"/>
     </row>
-    <row r="196" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="12" customHeight="1">
       <c r="A196" s="18"/>
       <c r="B196" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C196" s="10">
         <v>45022.1</v>
@@ -14465,14 +14587,14 @@
         <v>2191643.1</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="12" customHeight="1">
       <c r="A197" s="18"/>
       <c r="B197" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C197" s="10">
         <v>46601.599999999999</v>
@@ -14496,14 +14618,14 @@
         <v>2204541.7000000002</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="12" customHeight="1">
       <c r="A198" s="18"/>
       <c r="B198" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C198" s="10">
         <v>44655.1</v>
@@ -14527,14 +14649,14 @@
         <v>2214300.9</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="12" customHeight="1">
       <c r="A199" s="18"/>
       <c r="B199" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C199" s="10">
         <v>45945.02</v>
@@ -14558,14 +14680,14 @@
         <v>2241553.83</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="12" customHeight="1">
       <c r="A200" s="18"/>
       <c r="B200" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C200" s="10">
         <v>46515.93</v>
@@ -14589,16 +14711,16 @@
         <v>2275425.2599999998</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K200" s="19"/>
     </row>
-    <row r="201" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="12" customHeight="1">
       <c r="A201" s="18">
         <v>2018</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C201" s="10">
         <v>45584.5</v>
@@ -14622,16 +14744,16 @@
         <v>2242293.4900000002</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K201" s="19">
         <v>2018</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="12" customHeight="1">
       <c r="A202" s="18"/>
       <c r="B202" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C202" s="10">
         <v>47773.36</v>
@@ -14655,14 +14777,14 @@
         <v>2235928.6800000002</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="12" customHeight="1">
       <c r="A203" s="18"/>
       <c r="B203" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C203" s="10">
         <v>46636.71</v>
@@ -14686,14 +14808,14 @@
         <v>2255146.27</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K203" s="19"/>
     </row>
-    <row r="204" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="12" customHeight="1">
       <c r="A204" s="18"/>
       <c r="B204" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C204" s="10">
         <v>52167.31</v>
@@ -14717,14 +14839,14 @@
         <v>2273031.41</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K204" s="19"/>
     </row>
-    <row r="205" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="12" customHeight="1">
       <c r="A205" s="18"/>
       <c r="B205" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C205" s="10">
         <v>52882.18</v>
@@ -14748,14 +14870,14 @@
         <v>2321462.4300000002</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K205" s="19"/>
     </row>
-    <row r="206" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="12" customHeight="1">
       <c r="A206" s="18"/>
       <c r="B206" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C206" s="10">
         <v>52920.87</v>
@@ -14779,14 +14901,14 @@
         <v>2345681.75</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="12" customHeight="1">
       <c r="A207" s="18"/>
       <c r="B207" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C207" s="10">
         <v>54307.82</v>
@@ -14810,14 +14932,14 @@
         <v>2355253.9300000002</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K207" s="19"/>
     </row>
-    <row r="208" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="12" customHeight="1">
       <c r="A208" s="18"/>
       <c r="B208" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C208" s="10">
         <v>58230.41</v>
@@ -14841,14 +14963,14 @@
         <v>2385854.1</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K208" s="19"/>
     </row>
-    <row r="209" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="12" customHeight="1">
       <c r="A209" s="18"/>
       <c r="B209" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C209" s="10">
         <v>54569.34</v>
@@ -14872,14 +14994,14 @@
         <v>2386206.91</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K209" s="19"/>
     </row>
-    <row r="210" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="12" customHeight="1">
       <c r="A210" s="18"/>
       <c r="B210" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C210" s="10">
         <v>57909.43</v>
@@ -14903,14 +15025,14 @@
         <v>2424279.69</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K210" s="19"/>
     </row>
-    <row r="211" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="12" customHeight="1">
       <c r="A211" s="18"/>
       <c r="B211" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C211" s="10">
         <v>59955.21</v>
@@ -14934,14 +15056,14 @@
         <v>2430049.9300000002</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K211" s="19"/>
     </row>
-    <row r="212" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="12" customHeight="1">
       <c r="A212" s="18"/>
       <c r="B212" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C212" s="10">
         <v>63612.12</v>
@@ -14965,16 +15087,16 @@
         <v>2605852.91</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K212" s="19"/>
     </row>
-    <row r="213" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="12" customHeight="1">
       <c r="A213" s="18">
         <v>2019</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C213" s="10">
         <v>57670.25</v>
@@ -14998,16 +15120,16 @@
         <v>2576590.67</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K213" s="19">
         <v>2019</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="12" customHeight="1">
       <c r="A214" s="18"/>
       <c r="B214" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C214" s="10">
         <v>59243.16</v>
@@ -15031,14 +15153,14 @@
         <v>2571712.54</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K214" s="19"/>
     </row>
-    <row r="215" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="12" customHeight="1">
       <c r="A215" s="18"/>
       <c r="B215" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C215" s="10">
         <v>64007.33</v>
@@ -15062,14 +15184,14 @@
         <v>2588850</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K215" s="19"/>
     </row>
-    <row r="216" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="12" customHeight="1">
       <c r="A216" s="18"/>
       <c r="B216" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C216" s="10">
         <v>71299.33</v>
@@ -15093,14 +15215,14 @@
         <v>2557302.2799999998</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K216" s="19"/>
     </row>
-    <row r="217" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="12" customHeight="1">
       <c r="A217" s="18"/>
       <c r="B217" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C217" s="10">
         <v>78076.429999999993</v>
@@ -15124,14 +15246,14 @@
         <v>2581843.27</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K217" s="19"/>
     </row>
-    <row r="218" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="12" customHeight="1">
       <c r="A218" s="18"/>
       <c r="B218" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C218" s="10">
         <v>73903.350000000006</v>
@@ -15155,14 +15277,14 @@
         <v>2609109.31</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K218" s="19"/>
     </row>
-    <row r="219" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="12" customHeight="1">
       <c r="A219" s="18"/>
       <c r="B219" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C219" s="10">
         <v>73609.36</v>
@@ -15186,14 +15308,14 @@
         <v>2642256.85</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="12" customHeight="1">
       <c r="A220" s="18"/>
       <c r="B220" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C220" s="10">
         <v>75574.38</v>
@@ -15217,14 +15339,14 @@
         <v>2678819.37</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K220" s="19"/>
     </row>
-    <row r="221" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="12" customHeight="1">
       <c r="A221" s="18"/>
       <c r="B221" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C221" s="10">
         <v>76263.509999999995</v>
@@ -15248,14 +15370,14 @@
         <v>2699434.7149999999</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K221" s="19"/>
     </row>
-    <row r="222" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="12" customHeight="1">
       <c r="A222" s="18"/>
       <c r="B222" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C222" s="10">
         <v>74861.672000000006</v>
@@ -15279,14 +15401,14 @@
         <v>2711908.074</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K222" s="19"/>
     </row>
-    <row r="223" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="12" customHeight="1">
       <c r="A223" s="18"/>
       <c r="B223" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C223" s="10">
         <v>75734.048999999999</v>
@@ -15310,14 +15432,14 @@
         <v>2734113.4</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="12" customHeight="1">
       <c r="A224" s="18"/>
       <c r="B224" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C224" s="10">
         <v>77972.148000000001</v>
@@ -15341,16 +15463,16 @@
         <v>2823545.6129999999</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K224" s="19"/>
     </row>
-    <row r="225" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="12" customHeight="1">
       <c r="A225" s="18">
         <v>2020</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C225" s="10">
         <v>77593.297000000006</v>
@@ -15374,16 +15496,16 @@
         <v>2788826.5460000001</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K225" s="19">
         <v>2020</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="12" customHeight="1">
       <c r="A226" s="18"/>
       <c r="B226" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C226" s="10">
         <v>74628.001999999993</v>
@@ -15407,14 +15529,14 @@
         <v>2804079.395</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K226" s="19"/>
     </row>
-    <row r="227" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="12" customHeight="1">
       <c r="A227" s="18"/>
       <c r="B227" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C227" s="10">
         <v>73659.747000000003</v>
@@ -15438,14 +15560,14 @@
         <v>2850670.56</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K227" s="19"/>
     </row>
-    <row r="228" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="12" customHeight="1">
       <c r="A228" s="18"/>
       <c r="B228" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C228" s="10">
         <v>77369.880999999994</v>
@@ -15469,14 +15591,14 @@
         <v>2910483.3330000001</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K228" s="19"/>
     </row>
-    <row r="229" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="12" customHeight="1">
       <c r="A229" s="18"/>
       <c r="B229" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C229" s="10">
         <v>80297.210000000006</v>
@@ -15500,14 +15622,14 @@
         <v>3035136.09</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="10.5" customHeight="1">
       <c r="A230" s="18"/>
       <c r="B230" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C230" s="10">
         <v>82444.687999999995</v>
@@ -15531,14 +15653,14 @@
         <v>3104716.4670000002</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K230" s="19"/>
     </row>
-    <row r="231" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="10.5" customHeight="1">
       <c r="A231" s="18"/>
       <c r="B231" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C231" s="10">
         <v>83603.948000000004</v>
@@ -15562,14 +15684,14 @@
         <v>3106027.3390000002</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K231" s="19"/>
     </row>
-    <row r="232" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="12" customHeight="1">
       <c r="A232" s="18"/>
       <c r="B232" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C232" s="10">
         <v>82833.710000000006</v>
@@ -15593,14 +15715,14 @@
         <v>3133274.66</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="12" customHeight="1">
       <c r="A233" s="18"/>
       <c r="B233" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C233" s="10">
         <v>85115.784</v>
@@ -15624,14 +15746,14 @@
         <v>3206357.9569999999</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="12" customHeight="1">
       <c r="A234" s="18"/>
       <c r="B234" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C234" s="10">
         <v>87915.975999999995</v>
@@ -15655,14 +15777,14 @@
         <v>3209698.2</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="12" customHeight="1">
       <c r="A235" s="18"/>
       <c r="B235" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C235" s="10">
         <v>86918.122000000003</v>
@@ -15686,14 +15808,14 @@
         <v>3214714.0329999998</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="12" customHeight="1">
       <c r="A236" s="18"/>
       <c r="B236" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C236" s="10">
         <v>92284.781000000003</v>
@@ -15717,16 +15839,16 @@
         <v>3334749.176</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="12" customHeight="1">
       <c r="A237" s="18">
         <v>2021</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C237" s="10">
         <v>93026.959000000003</v>
@@ -15750,16 +15872,16 @@
         <v>3327714.7719999999</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K237" s="19">
         <v>2021</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="12" customHeight="1">
       <c r="A238" s="18"/>
       <c r="B238" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C238" s="10">
         <v>91869.994999999995</v>
@@ -15783,14 +15905,14 @@
         <v>3328508.1239999998</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="12" customHeight="1">
       <c r="A239" s="18"/>
       <c r="B239" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C239" s="10">
         <v>91655.434999999998</v>
@@ -15814,14 +15936,14 @@
         <v>3384433.9309999999</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K239" s="19"/>
     </row>
-    <row r="240" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="12" customHeight="1">
       <c r="A240" s="18"/>
       <c r="B240" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C240" s="10">
         <v>98306.089000000007</v>
@@ -15845,14 +15967,14 @@
         <v>3397961.4139999999</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="12" customHeight="1">
       <c r="A241" s="18"/>
       <c r="B241" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C241" s="10">
         <v>102346.014</v>
@@ -15876,14 +15998,14 @@
         <v>3450626.327</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="12" customHeight="1">
       <c r="A242" s="18"/>
       <c r="B242" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C242" s="10">
         <v>101821.30899999999</v>
@@ -15907,14 +16029,14 @@
         <v>3489256.8930000002</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K242" s="19"/>
     </row>
-    <row r="243" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="12" customHeight="1">
       <c r="A243" s="18"/>
       <c r="B243" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C243" s="10">
         <v>100833.72</v>
@@ -15938,14 +16060,14 @@
         <v>3509195.8390000002</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K243" s="19"/>
     </row>
-    <row r="244" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="12" customHeight="1">
       <c r="A244" s="18"/>
       <c r="B244" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C244" s="10">
         <v>101502.558</v>
@@ -15969,14 +16091,14 @@
         <v>3571034.142</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K244" s="19"/>
     </row>
-    <row r="245" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="12" customHeight="1">
       <c r="A245" s="18"/>
       <c r="B245" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C245" s="10">
         <v>101521.126</v>
@@ -16000,14 +16122,14 @@
         <v>3614109.7390000001</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K245" s="19"/>
     </row>
-    <row r="246" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="12" customHeight="1">
       <c r="A246" s="18"/>
       <c r="B246" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C246" s="10">
         <v>101053.51</v>
@@ -16031,14 +16153,14 @@
         <v>3606216.2030000002</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K246" s="19"/>
     </row>
-    <row r="247" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="12" customHeight="1">
       <c r="A247" s="18"/>
       <c r="B247" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C247" s="10">
         <v>104326.16899999999</v>
@@ -16062,14 +16184,14 @@
         <v>3697704.4870000002</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K247" s="19"/>
     </row>
-    <row r="248" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="12" customHeight="1">
       <c r="A248" s="18"/>
       <c r="B248" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C248" s="10">
         <v>104002.807</v>
@@ -16093,16 +16215,16 @@
         <v>3778049.2710000002</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K248" s="19"/>
     </row>
-    <row r="249" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="12" customHeight="1">
       <c r="A249" s="18">
         <v>2022</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C249" s="10">
         <v>106634.89</v>
@@ -16126,16 +16248,16 @@
         <v>3763231.67</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K249" s="19">
         <v>2022</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="12" customHeight="1">
       <c r="A250" s="18"/>
       <c r="B250" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C250" s="10">
         <v>108815.81299999999</v>
@@ -16159,14 +16281,14 @@
         <v>3782108.5279999999</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K250" s="19"/>
     </row>
-    <row r="251" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="12" customHeight="1">
       <c r="A251" s="18"/>
       <c r="B251" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C251" s="10">
         <v>102958.268</v>
@@ -16190,14 +16312,14 @@
         <v>3666133.9950000001</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K251" s="19"/>
     </row>
-    <row r="252" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="12" customHeight="1">
       <c r="A252" s="18"/>
       <c r="B252" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C252" s="10">
         <v>98339.478000000003</v>
@@ -16221,14 +16343,14 @@
         <v>3689380.659</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K252" s="19"/>
     </row>
-    <row r="253" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="12" customHeight="1">
       <c r="A253" s="18"/>
       <c r="B253" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C253" s="10">
         <v>100225.989</v>
@@ -16252,14 +16374,14 @@
         <v>3687150.0759999999</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="12" customHeight="1">
       <c r="A254" s="18"/>
       <c r="B254" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C254" s="10">
         <v>98028.369000000006</v>
@@ -16283,14 +16405,14 @@
         <v>3699052.6880000001</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K254" s="19"/>
     </row>
-    <row r="255" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="12" customHeight="1">
       <c r="A255" s="18"/>
       <c r="B255" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C255" s="10">
         <v>107027.46400000001</v>
@@ -16314,11 +16436,11 @@
         <v>3756514.182</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K255" s="19"/>
     </row>
-    <row r="256" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="12" customHeight="1">
       <c r="A256" s="18"/>
       <c r="B256" s="1"/>
       <c r="C256" s="10"/>
@@ -16331,12 +16453,12 @@
       <c r="J256" s="1"/>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:11" ht="12" customHeight="1">
       <c r="A257" s="18"/>
-      <c r="B257" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C257" s="38"/>
+      <c r="B257" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C257" s="36"/>
       <c r="D257" s="10"/>
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
@@ -16346,9 +16468,9 @@
       <c r="J257" s="1"/>
       <c r="K257" s="19"/>
     </row>
-    <row r="258" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="13.5" customHeight="1">
       <c r="B258" s="30" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C258" s="30"/>
       <c r="D258" s="30"/>
@@ -16360,64 +16482,64 @@
       <c r="J258" s="30"/>
       <c r="K258" s="7"/>
     </row>
-    <row r="259" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B259" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C259" s="37"/>
-      <c r="D259" s="37"/>
-      <c r="E259" s="37"/>
-      <c r="F259" s="37"/>
-      <c r="G259" s="37"/>
-      <c r="H259" s="37"/>
-      <c r="I259" s="37"/>
-      <c r="J259" s="37"/>
-      <c r="K259" s="37"/>
-    </row>
-    <row r="260" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B260" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="C260" s="37"/>
-      <c r="D260" s="37"/>
-      <c r="E260" s="37"/>
-      <c r="F260" s="37"/>
-      <c r="G260" s="37"/>
-      <c r="H260" s="37"/>
-      <c r="I260" s="37"/>
-      <c r="J260" s="37"/>
-      <c r="K260" s="37"/>
-    </row>
-    <row r="261" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B261" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="C261" s="66"/>
-      <c r="D261" s="66"/>
-      <c r="E261" s="66"/>
-      <c r="F261" s="66"/>
-      <c r="G261" s="66"/>
-      <c r="H261" s="66"/>
-      <c r="I261" s="66"/>
-      <c r="J261" s="66"/>
-      <c r="K261" s="66"/>
-    </row>
-    <row r="262" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="27.6" customHeight="1">
+      <c r="B259" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C259" s="34"/>
+      <c r="D259" s="34"/>
+      <c r="E259" s="34"/>
+      <c r="F259" s="34"/>
+      <c r="G259" s="34"/>
+      <c r="H259" s="34"/>
+      <c r="I259" s="34"/>
+      <c r="J259" s="34"/>
+      <c r="K259" s="34"/>
+    </row>
+    <row r="260" spans="1:11" ht="20.25" customHeight="1">
+      <c r="B260" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C260" s="34"/>
+      <c r="D260" s="34"/>
+      <c r="E260" s="34"/>
+      <c r="F260" s="34"/>
+      <c r="G260" s="34"/>
+      <c r="H260" s="34"/>
+      <c r="I260" s="34"/>
+      <c r="J260" s="34"/>
+      <c r="K260" s="34"/>
+    </row>
+    <row r="261" spans="1:11" ht="24" customHeight="1">
+      <c r="B261" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C261" s="58"/>
+      <c r="D261" s="58"/>
+      <c r="E261" s="58"/>
+      <c r="F261" s="58"/>
+      <c r="G261" s="58"/>
+      <c r="H261" s="58"/>
+      <c r="I261" s="58"/>
+      <c r="J261" s="58"/>
+      <c r="K261" s="58"/>
+    </row>
+    <row r="262" spans="1:11" ht="15">
       <c r="B262" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A7:B9"/>
     <mergeCell ref="B260:K260"/>
     <mergeCell ref="B261:K261"/>
     <mergeCell ref="B257:C257"/>
     <mergeCell ref="J7:K9"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="B259:K259"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A7:B9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -16433,19 +16555,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010093E80FBE6A614C458EAB2A2162F174B0" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96992f0488083e87769ca58bc8b470f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4cb8756c-3ecc-4074-b8ae-46fc2e86f577" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a71dfdeb33f2c38c6a90cca7e301423e" ns2:_="">
     <xsd:import namespace="4cb8756c-3ecc-4074-b8ae-46fc2e86f577"/>
@@ -16585,36 +16694,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AB64E2-B4A5-4348-945C-FB2FF5B8287B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B300FE05-2383-4B16-80CF-35240ADD612F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{633D13F8-B571-49E4-9BB4-632D582602F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{633D13F8-B571-49E4-9BB4-632D582602F0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B300FE05-2383-4B16-80CF-35240ADD612F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4cb8756c-3ecc-4074-b8ae-46fc2e86f577"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54AB64E2-B4A5-4348-945C-FB2FF5B8287B}"/>
 </file>